--- a/dataset/Contoh Uji Normalitas Kolmogorov.xlsx
+++ b/dataset/Contoh Uji Normalitas Kolmogorov.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F26D69-BBBD-49B2-A65C-6B87EC0C20F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7F974B-D285-4784-9C23-03653ADCD7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,14 +648,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,31 +1060,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>C7: =B7+C6 dan kemudian Scroll</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Down </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>copas d A53</a:t>
+            <a:t>C7: =B7+C6 dan kemudian </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kebawah </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>d A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1098,31 +1122,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>D6: =C6/J$6 dan kemudian Scroll</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Down </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>copas  sd A53</a:t>
+            <a:t>D6: =C6/J$6 dan kemudian </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kebawah </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1136,7 +1172,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>E6: =STANDARDIZE(A6,J$7,J$8) dan kemudian Scroll Down copas  sd A53</a:t>
+            <a:t>E6: =STANDARDIZE(A6,J$7,J$8) dan kemudian </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kebawah </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1150,7 +1222,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>F6: =NORMSDIST(E6) dan kemudian Scroll Down copas  sd A53</a:t>
+            <a:t>F6: =NORMSDIST(E6) dan kemudian </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kebawah </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1188,7 +1296,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dan kemudian Scroll Down copas  sd A53</a:t>
+            <a:t>dan kemudian </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kebawah </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1722,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1791,32 +1935,32 @@
       <c r="J3" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1911,11 +2055,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="13" t="str">
         <f>IF(J9&lt;J10,"Normal","Tidak Normal")</f>
         <v>Tidak Normal</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -2359,10 +2503,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K43"/>
